--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel05/field_16ha_100ha_10%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel05/field_16ha_100ha_10%_6m_0_LM/Planilha_Unificada.xlsx
@@ -4027,28 +4027,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>833.7666708201052</v>
+        <v>955.5520847562947</v>
       </c>
       <c r="AB2" t="n">
-        <v>1140.796342205558</v>
+        <v>1307.428518346323</v>
       </c>
       <c r="AC2" t="n">
-        <v>1031.920340423181</v>
+        <v>1182.649375542799</v>
       </c>
       <c r="AD2" t="n">
-        <v>833766.6708201052</v>
+        <v>955552.0847562947</v>
       </c>
       <c r="AE2" t="n">
-        <v>1140796.342205558</v>
+        <v>1307428.518346322</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.859085878570571e-07</v>
+        <v>1.45413664974396e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.3359375</v>
       </c>
       <c r="AH2" t="n">
-        <v>1031920.340423181</v>
+        <v>1182649.375542799</v>
       </c>
     </row>
     <row r="3">
@@ -4133,28 +4133,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>595.7634806946778</v>
+        <v>681.132774498976</v>
       </c>
       <c r="AB3" t="n">
-        <v>815.1498775162501</v>
+        <v>931.9559115267264</v>
       </c>
       <c r="AC3" t="n">
-        <v>737.3531172761368</v>
+        <v>843.0113473389517</v>
       </c>
       <c r="AD3" t="n">
-        <v>595763.4806946778</v>
+        <v>681132.774498976</v>
       </c>
       <c r="AE3" t="n">
-        <v>815149.87751625</v>
+        <v>931955.9115267263</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.009800336438135e-06</v>
+        <v>1.868395002709332e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.05208333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>737353.1172761368</v>
+        <v>843011.3473389518</v>
       </c>
     </row>
     <row r="4">
@@ -4239,28 +4239,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>521.6454071552065</v>
+        <v>607.0146114509538</v>
       </c>
       <c r="AB4" t="n">
-        <v>713.738259440916</v>
+        <v>830.5441709818441</v>
       </c>
       <c r="AC4" t="n">
-        <v>645.6200816978129</v>
+        <v>751.2782009794013</v>
       </c>
       <c r="AD4" t="n">
-        <v>521645.4071552065</v>
+        <v>607014.6114509538</v>
       </c>
       <c r="AE4" t="n">
-        <v>713738.259440916</v>
+        <v>830544.1709818441</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.097214285399367e-06</v>
+        <v>2.030133694520771e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.84765625</v>
       </c>
       <c r="AH4" t="n">
-        <v>645620.0816978129</v>
+        <v>751278.2009794012</v>
       </c>
     </row>
     <row r="5">
@@ -4345,28 +4345,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>498.3594562291943</v>
+        <v>583.5580683243494</v>
       </c>
       <c r="AB5" t="n">
-        <v>681.8773940802945</v>
+        <v>798.4498938463756</v>
       </c>
       <c r="AC5" t="n">
-        <v>616.7999726102038</v>
+        <v>722.2469566091411</v>
       </c>
       <c r="AD5" t="n">
-        <v>498359.4562291943</v>
+        <v>583558.0683243494</v>
       </c>
       <c r="AE5" t="n">
-        <v>681877.3940802945</v>
+        <v>798449.8938463756</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.141726541919813e-06</v>
+        <v>2.112493023034633e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.30729166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>616799.9726102038</v>
+        <v>722246.9566091411</v>
       </c>
     </row>
     <row r="6">
@@ -4451,28 +4451,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>470.9333881022399</v>
+        <v>556.2172515434155</v>
       </c>
       <c r="AB6" t="n">
-        <v>644.351837716264</v>
+        <v>761.0409821349945</v>
       </c>
       <c r="AC6" t="n">
-        <v>582.8558026781071</v>
+        <v>688.4082989277567</v>
       </c>
       <c r="AD6" t="n">
-        <v>470933.3881022399</v>
+        <v>556217.2515434155</v>
       </c>
       <c r="AE6" t="n">
-        <v>644351.837716264</v>
+        <v>761040.9821349945</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.170553304794878e-06</v>
+        <v>2.165830081615975e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.98177083333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>582855.8026781072</v>
+        <v>688408.2989277567</v>
       </c>
     </row>
     <row r="7">
@@ -4557,28 +4557,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>459.6221446811323</v>
+        <v>544.906008122308</v>
       </c>
       <c r="AB7" t="n">
-        <v>628.8752954506637</v>
+        <v>745.5644398693941</v>
       </c>
       <c r="AC7" t="n">
-        <v>568.8563198848722</v>
+        <v>674.4088161345218</v>
       </c>
       <c r="AD7" t="n">
-        <v>459622.1446811323</v>
+        <v>544906.0081223079</v>
       </c>
       <c r="AE7" t="n">
-        <v>628875.2954506637</v>
+        <v>745564.4398693941</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.188899730397957e-06</v>
+        <v>2.199775772340619e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.77994791666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>568856.3198848722</v>
+        <v>674408.8161345217</v>
       </c>
     </row>
     <row r="8">
@@ -4663,28 +4663,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>450.3862542928155</v>
+        <v>535.670117733991</v>
       </c>
       <c r="AB8" t="n">
-        <v>616.2383427626417</v>
+        <v>732.9274871813722</v>
       </c>
       <c r="AC8" t="n">
-        <v>557.4254202253206</v>
+        <v>662.9779164749701</v>
       </c>
       <c r="AD8" t="n">
-        <v>450386.2542928155</v>
+        <v>535670.117733991</v>
       </c>
       <c r="AE8" t="n">
-        <v>616238.3427626416</v>
+        <v>732927.4871813721</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.20386163728291e-06</v>
+        <v>2.227459217320894e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>12.62369791666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>557425.4202253206</v>
+        <v>662977.9164749702</v>
       </c>
     </row>
     <row r="9">
@@ -4769,28 +4769,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>441.3916679938428</v>
+        <v>514.4800203298911</v>
       </c>
       <c r="AB9" t="n">
-        <v>603.9315529752453</v>
+        <v>703.934261071963</v>
       </c>
       <c r="AC9" t="n">
-        <v>546.2931731825454</v>
+        <v>636.7517631731946</v>
       </c>
       <c r="AD9" t="n">
-        <v>441391.6679938427</v>
+        <v>514480.0203298911</v>
       </c>
       <c r="AE9" t="n">
-        <v>603931.5529752453</v>
+        <v>703934.261071963</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.217049589529398e-06</v>
+        <v>2.251860381773087e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>12.48697916666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>546293.1731825453</v>
+        <v>636751.7631731946</v>
       </c>
     </row>
     <row r="10">
@@ -4875,28 +4875,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>434.0432047688634</v>
+        <v>507.1315571049119</v>
       </c>
       <c r="AB10" t="n">
-        <v>593.8770613995114</v>
+        <v>693.879769496229</v>
       </c>
       <c r="AC10" t="n">
-        <v>537.1982681712319</v>
+        <v>627.6568581618812</v>
       </c>
       <c r="AD10" t="n">
-        <v>434043.2047688634</v>
+        <v>507131.5571049119</v>
       </c>
       <c r="AE10" t="n">
-        <v>593877.0613995114</v>
+        <v>693879.769496229</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.225966045738527e-06</v>
+        <v>2.268358160216871e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>13</v>
+        <v>12.39583333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>537198.268171232</v>
+        <v>627656.8581618812</v>
       </c>
     </row>
     <row r="11">
@@ -4981,28 +4981,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>428.1478375115424</v>
+        <v>501.2361898475908</v>
       </c>
       <c r="AB11" t="n">
-        <v>585.8107598327973</v>
+        <v>685.8134679295148</v>
       </c>
       <c r="AC11" t="n">
-        <v>529.9018031049196</v>
+        <v>620.3603930955687</v>
       </c>
       <c r="AD11" t="n">
-        <v>428147.8375115424</v>
+        <v>501236.1898475908</v>
       </c>
       <c r="AE11" t="n">
-        <v>585810.7598327973</v>
+        <v>685813.4679295148</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.229117149372644e-06</v>
+        <v>2.274188526944386e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>13</v>
+        <v>12.36328125</v>
       </c>
       <c r="AH11" t="n">
-        <v>529901.8031049196</v>
+        <v>620360.3930955688</v>
       </c>
     </row>
     <row r="12">
@@ -5087,28 +5087,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>420.9732840567997</v>
+        <v>494.0616363928484</v>
       </c>
       <c r="AB12" t="n">
-        <v>575.9942192770588</v>
+        <v>675.9969273737764</v>
       </c>
       <c r="AC12" t="n">
-        <v>521.0221394022196</v>
+        <v>611.480729392869</v>
       </c>
       <c r="AD12" t="n">
-        <v>420973.2840567997</v>
+        <v>494061.6363928483</v>
       </c>
       <c r="AE12" t="n">
-        <v>575994.2192770588</v>
+        <v>675996.9273737764</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.238453752732989e-06</v>
+        <v>2.291463687618504e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>13</v>
+        <v>12.27213541666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>521022.1394022197</v>
+        <v>611480.7293928689</v>
       </c>
     </row>
     <row r="13">
@@ -5193,28 +5193,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>413.6215513756911</v>
+        <v>486.7099037117396</v>
       </c>
       <c r="AB13" t="n">
-        <v>565.9352542872106</v>
+        <v>665.9379623839282</v>
       </c>
       <c r="AC13" t="n">
-        <v>511.9231879131564</v>
+        <v>602.3817779038056</v>
       </c>
       <c r="AD13" t="n">
-        <v>413621.5513756911</v>
+        <v>486709.9037117396</v>
       </c>
       <c r="AE13" t="n">
-        <v>565935.2542872105</v>
+        <v>665937.9623839281</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.241674880892308e-06</v>
+        <v>2.297423618051076e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>13</v>
+        <v>12.23958333333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>511923.1879131563</v>
+        <v>602381.7779038056</v>
       </c>
     </row>
     <row r="14">
@@ -5299,28 +5299,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>411.0552834313803</v>
+        <v>484.1436357674287</v>
       </c>
       <c r="AB14" t="n">
-        <v>562.423973270053</v>
+        <v>662.4266813667707</v>
       </c>
       <c r="AC14" t="n">
-        <v>508.7470186281627</v>
+        <v>599.205608618812</v>
       </c>
       <c r="AD14" t="n">
-        <v>411055.2834313803</v>
+        <v>484143.6357674287</v>
       </c>
       <c r="AE14" t="n">
-        <v>562423.973270053</v>
+        <v>662426.6813667708</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.244195763799601e-06</v>
+        <v>2.302087911433088e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>13</v>
+        <v>12.21354166666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>508747.0186281627</v>
+        <v>599205.6086188119</v>
       </c>
     </row>
     <row r="15">
@@ -5405,28 +5405,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>411.8323913373544</v>
+        <v>484.920743673403</v>
       </c>
       <c r="AB15" t="n">
-        <v>563.4872465905883</v>
+        <v>663.489954687306</v>
       </c>
       <c r="AC15" t="n">
-        <v>509.7088146352994</v>
+        <v>600.1674046259486</v>
       </c>
       <c r="AD15" t="n">
-        <v>411832.3913373544</v>
+        <v>484920.743673403</v>
       </c>
       <c r="AE15" t="n">
-        <v>563487.2465905882</v>
+        <v>663489.954687306</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.24470927698442e-06</v>
+        <v>2.303038045270165e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>13</v>
+        <v>12.20703125</v>
       </c>
       <c r="AH15" t="n">
-        <v>509708.8146352994</v>
+        <v>600167.4046259486</v>
       </c>
     </row>
   </sheetData>
@@ -5702,28 +5702,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>663.9829178574593</v>
+        <v>769.6857348513221</v>
       </c>
       <c r="AB2" t="n">
-        <v>908.4907210715262</v>
+        <v>1053.117978561697</v>
       </c>
       <c r="AC2" t="n">
-        <v>821.7856417271942</v>
+        <v>952.6098767481344</v>
       </c>
       <c r="AD2" t="n">
-        <v>663982.9178574593</v>
+        <v>769685.7348513221</v>
       </c>
       <c r="AE2" t="n">
-        <v>908490.7210715262</v>
+        <v>1053117.978561697</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.07713869941105e-07</v>
+        <v>1.73024272576656e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.31770833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>821785.6417271942</v>
+        <v>952609.8767481344</v>
       </c>
     </row>
     <row r="3">
@@ -5808,28 +5808,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>503.1364542063503</v>
+        <v>585.3971877893504</v>
       </c>
       <c r="AB3" t="n">
-        <v>688.4134934589164</v>
+        <v>800.9662582346145</v>
       </c>
       <c r="AC3" t="n">
-        <v>622.712275837603</v>
+        <v>724.523162711906</v>
       </c>
       <c r="AD3" t="n">
-        <v>503136.4542063503</v>
+        <v>585397.1877893504</v>
       </c>
       <c r="AE3" t="n">
-        <v>688413.4934589164</v>
+        <v>800966.2582346145</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.111775636137963e-06</v>
+        <v>2.119215945479616e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.140625</v>
       </c>
       <c r="AH3" t="n">
-        <v>622712.275837603</v>
+        <v>724523.162711906</v>
       </c>
     </row>
     <row r="4">
@@ -5914,28 +5914,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>456.4839929886763</v>
+        <v>538.6593857171048</v>
       </c>
       <c r="AB4" t="n">
-        <v>624.5815378595637</v>
+        <v>737.0175355130641</v>
       </c>
       <c r="AC4" t="n">
-        <v>564.9723524919401</v>
+        <v>666.6776163343045</v>
       </c>
       <c r="AD4" t="n">
-        <v>456483.9929886763</v>
+        <v>538659.3857171048</v>
       </c>
       <c r="AE4" t="n">
-        <v>624581.5378595637</v>
+        <v>737017.5355130641</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.185736254983185e-06</v>
+        <v>2.260196299518321e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.25520833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>564972.3524919401</v>
+        <v>666677.6163343044</v>
       </c>
     </row>
     <row r="5">
@@ -6020,28 +6020,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>426.6470623305461</v>
+        <v>508.9077064049951</v>
       </c>
       <c r="AB5" t="n">
-        <v>583.75733302063</v>
+        <v>696.3099753267797</v>
       </c>
       <c r="AC5" t="n">
-        <v>528.0443524657029</v>
+        <v>629.8551285587795</v>
       </c>
       <c r="AD5" t="n">
-        <v>426647.0623305461</v>
+        <v>508907.7064049951</v>
       </c>
       <c r="AE5" t="n">
-        <v>583757.3330206299</v>
+        <v>696309.9753267798</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.224056693150788e-06</v>
+        <v>2.333240968750911e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.84505208333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>528044.3524657029</v>
+        <v>629855.1285587795</v>
       </c>
     </row>
     <row r="6">
@@ -6126,28 +6126,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>411.0354134071693</v>
+        <v>481.7030270580443</v>
       </c>
       <c r="AB6" t="n">
-        <v>562.396786226324</v>
+        <v>659.0873328585338</v>
       </c>
       <c r="AC6" t="n">
-        <v>508.7224262777298</v>
+        <v>596.1849628453962</v>
       </c>
       <c r="AD6" t="n">
-        <v>411035.4134071693</v>
+        <v>481703.0270580443</v>
       </c>
       <c r="AE6" t="n">
-        <v>562396.786226324</v>
+        <v>659087.3328585338</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.25368440432385e-06</v>
+        <v>2.389715958762498e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.5390625</v>
       </c>
       <c r="AH6" t="n">
-        <v>508722.4262777298</v>
+        <v>596184.9628453961</v>
       </c>
     </row>
     <row r="7">
@@ -6232,28 +6232,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>400.5617277234867</v>
+        <v>471.0587491737695</v>
       </c>
       <c r="AB7" t="n">
-        <v>548.0662274075082</v>
+        <v>644.523362264871</v>
       </c>
       <c r="AC7" t="n">
-        <v>495.7595558795161</v>
+        <v>583.0109571645313</v>
       </c>
       <c r="AD7" t="n">
-        <v>400561.7277234867</v>
+        <v>471058.7491737695</v>
       </c>
       <c r="AE7" t="n">
-        <v>548066.2274075082</v>
+        <v>644523.362264871</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.270997418921312e-06</v>
+        <v>2.42271723654433e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.36979166666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>495759.5558795161</v>
+        <v>583010.9571645313</v>
       </c>
     </row>
     <row r="8">
@@ -6338,28 +6338,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>393.5982961610561</v>
+        <v>464.0953176113389</v>
       </c>
       <c r="AB8" t="n">
-        <v>538.5385531388714</v>
+        <v>634.9956879962343</v>
       </c>
       <c r="AC8" t="n">
-        <v>487.1411894709033</v>
+        <v>574.3925907559184</v>
       </c>
       <c r="AD8" t="n">
-        <v>393598.296161056</v>
+        <v>464095.3176113389</v>
       </c>
       <c r="AE8" t="n">
-        <v>538538.5531388714</v>
+        <v>634995.6879962343</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.278072332836313e-06</v>
+        <v>2.436203114354758e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>12.29817708333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>487141.1894709032</v>
+        <v>574392.5907559184</v>
       </c>
     </row>
     <row r="9">
@@ -6444,28 +6444,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>381.8386660053961</v>
+        <v>452.335687455679</v>
       </c>
       <c r="AB9" t="n">
-        <v>522.44850836163</v>
+        <v>618.905643218993</v>
       </c>
       <c r="AC9" t="n">
-        <v>472.586755984682</v>
+        <v>559.8381572696974</v>
       </c>
       <c r="AD9" t="n">
-        <v>381838.6660053961</v>
+        <v>452335.6874556789</v>
       </c>
       <c r="AE9" t="n">
-        <v>522448.50836163</v>
+        <v>618905.643218993</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.292511918232801e-06</v>
+        <v>2.463727192616314e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>12.16145833333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>472586.755984682</v>
+        <v>559838.1572696974</v>
       </c>
     </row>
     <row r="10">
@@ -6550,28 +6550,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>374.4181933000685</v>
+        <v>444.9152147503513</v>
       </c>
       <c r="AB10" t="n">
-        <v>512.2954902380494</v>
+        <v>608.7526250954123</v>
       </c>
       <c r="AC10" t="n">
-        <v>463.4027276609656</v>
+        <v>550.6541289459808</v>
       </c>
       <c r="AD10" t="n">
-        <v>374418.1933000685</v>
+        <v>444915.2147503513</v>
       </c>
       <c r="AE10" t="n">
-        <v>512295.4902380494</v>
+        <v>608752.6250954124</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.299007317014834e-06</v>
+        <v>2.476108425145341e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>13</v>
+        <v>12.10286458333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>463402.7276609656</v>
+        <v>550654.1289459808</v>
       </c>
     </row>
     <row r="11">
@@ -6656,28 +6656,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>375.8009289383862</v>
+        <v>446.2979503886691</v>
       </c>
       <c r="AB11" t="n">
-        <v>514.1874101403868</v>
+        <v>610.6445449977496</v>
       </c>
       <c r="AC11" t="n">
-        <v>465.1140853831502</v>
+        <v>552.3654866681653</v>
       </c>
       <c r="AD11" t="n">
-        <v>375800.9289383861</v>
+        <v>446297.950388669</v>
       </c>
       <c r="AE11" t="n">
-        <v>514187.4101403868</v>
+        <v>610644.5449977496</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.298548534201233e-06</v>
+        <v>2.475233914297566e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>13</v>
+        <v>12.109375</v>
       </c>
       <c r="AH11" t="n">
-        <v>465114.0853831501</v>
+        <v>552365.4866681653</v>
       </c>
     </row>
   </sheetData>
@@ -6953,28 +6953,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>357.17383123971</v>
+        <v>430.4179286780462</v>
       </c>
       <c r="AB2" t="n">
-        <v>488.7009932995052</v>
+        <v>588.9167987161619</v>
       </c>
       <c r="AC2" t="n">
-        <v>442.0600563951516</v>
+        <v>532.7114059966087</v>
       </c>
       <c r="AD2" t="n">
-        <v>357173.83123971</v>
+        <v>430417.9286780462</v>
       </c>
       <c r="AE2" t="n">
-        <v>488700.9932995052</v>
+        <v>588916.7987161619</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.285441302641361e-06</v>
+        <v>2.737653570865367e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.64583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>442060.0563951516</v>
+        <v>532711.4059966088</v>
       </c>
     </row>
     <row r="3">
@@ -7059,28 +7059,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>302.8729559939973</v>
+        <v>365.568359595122</v>
       </c>
       <c r="AB3" t="n">
-        <v>414.4041402027773</v>
+        <v>500.1867573358337</v>
       </c>
       <c r="AC3" t="n">
-        <v>374.8539906816872</v>
+        <v>452.449635232224</v>
       </c>
       <c r="AD3" t="n">
-        <v>302872.9559939973</v>
+        <v>365568.359595122</v>
       </c>
       <c r="AE3" t="n">
-        <v>414404.1402027773</v>
+        <v>500186.7573358337</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.422774544855727e-06</v>
+        <v>3.030137436269508e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.33072916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>374853.9906816871</v>
+        <v>452449.635232224</v>
       </c>
     </row>
     <row r="4">
@@ -7165,28 +7165,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>289.9339526506105</v>
+        <v>352.6293562517352</v>
       </c>
       <c r="AB4" t="n">
-        <v>396.700424999815</v>
+        <v>482.4830421328713</v>
       </c>
       <c r="AC4" t="n">
-        <v>358.8398932103752</v>
+        <v>436.435537760912</v>
       </c>
       <c r="AD4" t="n">
-        <v>289933.9526506105</v>
+        <v>352629.3562517352</v>
       </c>
       <c r="AE4" t="n">
-        <v>396700.4249998149</v>
+        <v>482483.0421328713</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.451712332208725e-06</v>
+        <v>3.091767350227532e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.08333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>358839.8932103752</v>
+        <v>436435.537760912</v>
       </c>
     </row>
   </sheetData>
@@ -7462,28 +7462,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>449.7927852701181</v>
+        <v>537.4818127851493</v>
       </c>
       <c r="AB2" t="n">
-        <v>615.4263322637818</v>
+        <v>735.4063282767115</v>
       </c>
       <c r="AC2" t="n">
-        <v>556.6909068688079</v>
+        <v>665.2201804552458</v>
       </c>
       <c r="AD2" t="n">
-        <v>449792.7852701182</v>
+        <v>537481.8127851492</v>
       </c>
       <c r="AE2" t="n">
-        <v>615426.3322637818</v>
+        <v>735406.3282767115</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.13643030479293e-06</v>
+        <v>2.307346418667961e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.765625</v>
       </c>
       <c r="AH2" t="n">
-        <v>556690.906868808</v>
+        <v>665220.1804552458</v>
       </c>
     </row>
     <row r="3">
@@ -7568,28 +7568,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>365.3704971360767</v>
+        <v>442.0877286049075</v>
       </c>
       <c r="AB3" t="n">
-        <v>499.9160331902923</v>
+        <v>604.8839338113312</v>
       </c>
       <c r="AC3" t="n">
-        <v>452.2047486191693</v>
+        <v>547.1546601283101</v>
       </c>
       <c r="AD3" t="n">
-        <v>365370.4971360767</v>
+        <v>442087.7286049075</v>
       </c>
       <c r="AE3" t="n">
-        <v>499916.0331902923</v>
+        <v>604883.9338113312</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.298976337772975e-06</v>
+        <v>2.637371062927627e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.91666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>452204.7486191693</v>
+        <v>547154.6601283101</v>
       </c>
     </row>
     <row r="4">
@@ -7674,28 +7674,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>343.3566488308242</v>
+        <v>409.1021737620057</v>
       </c>
       <c r="AB4" t="n">
-        <v>469.7957147566011</v>
+        <v>559.7516424552974</v>
       </c>
       <c r="AC4" t="n">
-        <v>424.9590711026572</v>
+        <v>506.3297313157274</v>
       </c>
       <c r="AD4" t="n">
-        <v>343356.6488308242</v>
+        <v>409102.1737620058</v>
       </c>
       <c r="AE4" t="n">
-        <v>469795.7147566011</v>
+        <v>559751.6424552974</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.35333878362691e-06</v>
+        <v>2.747745622829884e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.40234375</v>
       </c>
       <c r="AH4" t="n">
-        <v>424959.0711026572</v>
+        <v>506329.7313157273</v>
       </c>
     </row>
     <row r="5">
@@ -7780,28 +7780,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>326.1187916571248</v>
+        <v>391.8643165883063</v>
       </c>
       <c r="AB5" t="n">
-        <v>446.2101180909592</v>
+        <v>536.1660457896554</v>
       </c>
       <c r="AC5" t="n">
-        <v>403.6244506801913</v>
+        <v>484.9951108932614</v>
       </c>
       <c r="AD5" t="n">
-        <v>326118.7916571248</v>
+        <v>391864.3165883063</v>
       </c>
       <c r="AE5" t="n">
-        <v>446210.1180909591</v>
+        <v>536166.0457896554</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.386255257479672e-06</v>
+        <v>2.814577445018212e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.10286458333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>403624.4506801913</v>
+        <v>484995.1108932614</v>
       </c>
     </row>
     <row r="6">
@@ -7886,28 +7886,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>320.8763143667914</v>
+        <v>386.6218392979728</v>
       </c>
       <c r="AB6" t="n">
-        <v>439.03712938055</v>
+        <v>528.9930570792462</v>
       </c>
       <c r="AC6" t="n">
-        <v>397.1360419449507</v>
+        <v>478.5067021580209</v>
       </c>
       <c r="AD6" t="n">
-        <v>320876.3143667914</v>
+        <v>386621.8392979729</v>
       </c>
       <c r="AE6" t="n">
-        <v>439037.12938055</v>
+        <v>528993.0570792463</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.394890354379183e-06</v>
+        <v>2.832109677150624e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.03125</v>
       </c>
       <c r="AH6" t="n">
-        <v>397136.0419449507</v>
+        <v>478506.7021580209</v>
       </c>
     </row>
     <row r="7">
@@ -7992,28 +7992,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>322.3199596798718</v>
+        <v>388.0654846110533</v>
       </c>
       <c r="AB7" t="n">
-        <v>441.0123885870429</v>
+        <v>530.9683162857391</v>
       </c>
       <c r="AC7" t="n">
-        <v>398.9227851850695</v>
+        <v>480.2934453981398</v>
       </c>
       <c r="AD7" t="n">
-        <v>322319.9596798718</v>
+        <v>388065.4846110533</v>
       </c>
       <c r="AE7" t="n">
-        <v>441012.3885870429</v>
+        <v>530968.3162857391</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.394529484658009e-06</v>
+        <v>2.831376986852553e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.03125</v>
       </c>
       <c r="AH7" t="n">
-        <v>398922.7851850695</v>
+        <v>480293.4453981398</v>
       </c>
     </row>
   </sheetData>
@@ -8289,28 +8289,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>289.44416034314</v>
+        <v>359.6842375675228</v>
       </c>
       <c r="AB2" t="n">
-        <v>396.0302695566223</v>
+        <v>492.1358419885294</v>
       </c>
       <c r="AC2" t="n">
-        <v>358.2336964621117</v>
+        <v>445.1670879461358</v>
       </c>
       <c r="AD2" t="n">
-        <v>289444.16034314</v>
+        <v>359684.2375675228</v>
       </c>
       <c r="AE2" t="n">
-        <v>396030.2695566223</v>
+        <v>492135.8419885294</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.411462013723829e-06</v>
+        <v>3.143050212098584e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.91015625</v>
       </c>
       <c r="AH2" t="n">
-        <v>358233.6964621117</v>
+        <v>445167.0879461358</v>
       </c>
     </row>
     <row r="3">
@@ -8395,28 +8395,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>265.8941126802593</v>
+        <v>326.0877911161996</v>
       </c>
       <c r="AB3" t="n">
-        <v>363.8080553894917</v>
+        <v>446.167701783218</v>
       </c>
       <c r="AC3" t="n">
-        <v>329.0867251909305</v>
+        <v>403.5860825253293</v>
       </c>
       <c r="AD3" t="n">
-        <v>265894.1126802593</v>
+        <v>326087.7911161996</v>
       </c>
       <c r="AE3" t="n">
-        <v>363808.0553894917</v>
+        <v>446167.701783218</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.493593717569651e-06</v>
+        <v>3.325941474266933e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.20052083333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>329086.7251909305</v>
+        <v>403586.0825253293</v>
       </c>
     </row>
   </sheetData>
@@ -8692,28 +8692,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>696.9949610160534</v>
+        <v>803.8900339643799</v>
       </c>
       <c r="AB2" t="n">
-        <v>953.659254909672</v>
+        <v>1099.917809595361</v>
       </c>
       <c r="AC2" t="n">
-        <v>862.6433540902628</v>
+        <v>994.9431975919204</v>
       </c>
       <c r="AD2" t="n">
-        <v>696994.9610160533</v>
+        <v>803890.0339643799</v>
       </c>
       <c r="AE2" t="n">
-        <v>953659.254909672</v>
+        <v>1099917.809595361</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.764439884235883e-07</v>
+        <v>1.657148450894207e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.7734375</v>
       </c>
       <c r="AH2" t="n">
-        <v>862643.3540902629</v>
+        <v>994943.1975919204</v>
       </c>
     </row>
     <row r="3">
@@ -8798,28 +8798,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>522.6850238277295</v>
+        <v>605.7403847748518</v>
       </c>
       <c r="AB3" t="n">
-        <v>715.1607088369125</v>
+        <v>828.8007178286878</v>
       </c>
       <c r="AC3" t="n">
-        <v>646.9067745198756</v>
+        <v>749.7011405482303</v>
       </c>
       <c r="AD3" t="n">
-        <v>522685.0238277295</v>
+        <v>605740.3847748518</v>
       </c>
       <c r="AE3" t="n">
-        <v>715160.7088369125</v>
+        <v>828800.7178286877</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.084918297033491e-06</v>
+        <v>2.051324099455075e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.36197916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>646906.7745198756</v>
+        <v>749701.1405482304</v>
       </c>
     </row>
     <row r="4">
@@ -8904,28 +8904,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>471.1697498556214</v>
+        <v>554.139769948172</v>
       </c>
       <c r="AB4" t="n">
-        <v>644.6752382947851</v>
+        <v>758.1984801643629</v>
       </c>
       <c r="AC4" t="n">
-        <v>583.1483383593098</v>
+        <v>685.8370813557257</v>
       </c>
       <c r="AD4" t="n">
-        <v>471169.7498556214</v>
+        <v>554139.769948172</v>
       </c>
       <c r="AE4" t="n">
-        <v>644675.2382947851</v>
+        <v>758198.4801643629</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.165680555017699e-06</v>
+        <v>2.20402644264756e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.36588541666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>583148.3383593098</v>
+        <v>685837.0813557256</v>
       </c>
     </row>
     <row r="5">
@@ -9010,28 +9010,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>435.3191772396991</v>
+        <v>518.3744486782703</v>
       </c>
       <c r="AB5" t="n">
-        <v>595.6229032260412</v>
+        <v>709.2627897482683</v>
       </c>
       <c r="AC5" t="n">
-        <v>538.777489304142</v>
+        <v>641.5717445512703</v>
       </c>
       <c r="AD5" t="n">
-        <v>435319.1772396991</v>
+        <v>518374.4486782703</v>
       </c>
       <c r="AE5" t="n">
-        <v>595622.9032260412</v>
+        <v>709262.7897482683</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.2144489940612e-06</v>
+        <v>2.296236035366458e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.82552083333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>538777.4893041421</v>
+        <v>641571.7445512703</v>
       </c>
     </row>
     <row r="6">
@@ -9116,28 +9116,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>427.2137946902829</v>
+        <v>510.2690661288542</v>
       </c>
       <c r="AB6" t="n">
-        <v>584.5327612376891</v>
+        <v>698.1726477599162</v>
       </c>
       <c r="AC6" t="n">
-        <v>528.7457749020462</v>
+        <v>631.5400301491744</v>
       </c>
       <c r="AD6" t="n">
-        <v>427213.7946902829</v>
+        <v>510269.0661288542</v>
       </c>
       <c r="AE6" t="n">
-        <v>584532.7612376891</v>
+        <v>698172.6477599163</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.229189601740688e-06</v>
+        <v>2.324107040820257e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.67578125</v>
       </c>
       <c r="AH6" t="n">
-        <v>528745.7749020462</v>
+        <v>631540.0301491744</v>
       </c>
     </row>
     <row r="7">
@@ -9222,28 +9222,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>416.2854159583519</v>
+        <v>487.4635465778824</v>
       </c>
       <c r="AB7" t="n">
-        <v>569.5800713306182</v>
+        <v>666.9691298017616</v>
       </c>
       <c r="AC7" t="n">
-        <v>515.220148733474</v>
+        <v>603.3145321505335</v>
       </c>
       <c r="AD7" t="n">
-        <v>416285.4159583519</v>
+        <v>487463.5465778824</v>
       </c>
       <c r="AE7" t="n">
-        <v>569580.0713306182</v>
+        <v>666969.1298017616</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.246418883443986e-06</v>
+        <v>2.356683540701321e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>515220.1487334741</v>
+        <v>603314.5321505335</v>
       </c>
     </row>
     <row r="8">
@@ -9328,28 +9328,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>406.0750620853877</v>
+        <v>477.2531927049182</v>
       </c>
       <c r="AB8" t="n">
-        <v>555.6098147126069</v>
+        <v>652.9988731837502</v>
       </c>
       <c r="AC8" t="n">
-        <v>502.5831937997074</v>
+        <v>590.677577216767</v>
       </c>
       <c r="AD8" t="n">
-        <v>406075.0620853878</v>
+        <v>477253.1927049182</v>
       </c>
       <c r="AE8" t="n">
-        <v>555609.8147126068</v>
+        <v>652998.8731837502</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.262882419293804e-06</v>
+        <v>2.387812196143226e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>12.33723958333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>502583.1937997075</v>
+        <v>590677.577216767</v>
       </c>
     </row>
     <row r="9">
@@ -9434,28 +9434,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>398.0275564369152</v>
+        <v>469.2056870564457</v>
       </c>
       <c r="AB9" t="n">
-        <v>544.5988624534743</v>
+        <v>641.9879209246177</v>
       </c>
       <c r="AC9" t="n">
-        <v>492.6231113702179</v>
+        <v>580.7174947872775</v>
       </c>
       <c r="AD9" t="n">
-        <v>398027.5564369152</v>
+        <v>469205.6870564457</v>
       </c>
       <c r="AE9" t="n">
-        <v>544598.8624534743</v>
+        <v>641987.9209246177</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.272071369535563e-06</v>
+        <v>2.405186329413126e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>12.24609375</v>
       </c>
       <c r="AH9" t="n">
-        <v>492623.1113702179</v>
+        <v>580717.4947872774</v>
       </c>
     </row>
     <row r="10">
@@ -9540,28 +9540,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>390.0705461080872</v>
+        <v>461.2486767276176</v>
       </c>
       <c r="AB10" t="n">
-        <v>533.7117298830511</v>
+        <v>631.1007883541945</v>
       </c>
       <c r="AC10" t="n">
-        <v>482.7750314521294</v>
+        <v>570.8694148691889</v>
       </c>
       <c r="AD10" t="n">
-        <v>390070.5461080872</v>
+        <v>461248.6767276176</v>
       </c>
       <c r="AE10" t="n">
-        <v>533711.7298830511</v>
+        <v>631100.7883541945</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.278771645753512e-06</v>
+        <v>2.417854968255762e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>13</v>
+        <v>12.18098958333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>482775.0314521294</v>
+        <v>570869.4148691889</v>
       </c>
     </row>
     <row r="11">
@@ -9646,28 +9646,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>382.9991650360229</v>
+        <v>454.1772956555535</v>
       </c>
       <c r="AB11" t="n">
-        <v>524.0363543329375</v>
+        <v>621.4254128040809</v>
       </c>
       <c r="AC11" t="n">
-        <v>474.0230601650438</v>
+        <v>562.1174435821032</v>
       </c>
       <c r="AD11" t="n">
-        <v>382999.1650360229</v>
+        <v>454177.2956555535</v>
       </c>
       <c r="AE11" t="n">
-        <v>524036.3543329375</v>
+        <v>621425.4128040809</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.285759076666516e-06</v>
+        <v>2.431066548763082e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>13</v>
+        <v>12.11588541666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>474023.0601650438</v>
+        <v>562117.4435821032</v>
       </c>
     </row>
     <row r="12">
@@ -9752,28 +9752,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>383.6752115645232</v>
+        <v>454.8533421840537</v>
       </c>
       <c r="AB12" t="n">
-        <v>524.9613510182993</v>
+        <v>622.3504094894429</v>
       </c>
       <c r="AC12" t="n">
-        <v>474.8597764649958</v>
+        <v>562.9541598820553</v>
       </c>
       <c r="AD12" t="n">
-        <v>383675.2115645232</v>
+        <v>454853.3421840537</v>
       </c>
       <c r="AE12" t="n">
-        <v>524961.3510182993</v>
+        <v>622350.4094894428</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.285543710645225e-06</v>
+        <v>2.430659342514569e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>13</v>
+        <v>12.11588541666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>474859.7764649958</v>
+        <v>562954.1598820552</v>
       </c>
     </row>
   </sheetData>
@@ -10049,28 +10049,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>257.7310014432861</v>
+        <v>316.6138762066535</v>
       </c>
       <c r="AB2" t="n">
-        <v>352.6389264638473</v>
+        <v>433.2050734443494</v>
       </c>
       <c r="AC2" t="n">
-        <v>318.9835622540847</v>
+        <v>391.860589241959</v>
       </c>
       <c r="AD2" t="n">
-        <v>257731.0014432861</v>
+        <v>316613.8762066535</v>
       </c>
       <c r="AE2" t="n">
-        <v>352638.9264638473</v>
+        <v>433205.0734443493</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.4893686963749e-06</v>
+        <v>3.414477149095733e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.51953125</v>
       </c>
       <c r="AH2" t="n">
-        <v>318983.5622540847</v>
+        <v>391860.589241959</v>
       </c>
     </row>
     <row r="3">
@@ -10155,28 +10155,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>252.8373135337135</v>
+        <v>311.5495960964887</v>
       </c>
       <c r="AB3" t="n">
-        <v>345.9431667717</v>
+        <v>426.2759019773516</v>
       </c>
       <c r="AC3" t="n">
-        <v>312.9268364693962</v>
+        <v>385.5927281746185</v>
       </c>
       <c r="AD3" t="n">
-        <v>252837.3135337135</v>
+        <v>311549.5960964887</v>
       </c>
       <c r="AE3" t="n">
-        <v>345943.1667717</v>
+        <v>426275.9019773516</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.509529743200287e-06</v>
+        <v>3.460697694656203e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.35026041666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>312926.8364693962</v>
+        <v>385592.7281746184</v>
       </c>
     </row>
   </sheetData>
@@ -10452,28 +10452,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>546.0081107538761</v>
+        <v>648.3950450446457</v>
       </c>
       <c r="AB2" t="n">
-        <v>747.0723853112422</v>
+        <v>887.1627058006208</v>
       </c>
       <c r="AC2" t="n">
-        <v>675.7728453798147</v>
+        <v>802.4931422996866</v>
       </c>
       <c r="AD2" t="n">
-        <v>546008.110753876</v>
+        <v>648395.0450446457</v>
       </c>
       <c r="AE2" t="n">
-        <v>747072.3853112422</v>
+        <v>887162.7058006207</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.014464074632532e-06</v>
+        <v>1.988335566453023e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.96354166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>675772.8453798147</v>
+        <v>802493.1422996866</v>
       </c>
     </row>
     <row r="3">
@@ -10558,28 +10558,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>435.029063299301</v>
+        <v>514.7960979658999</v>
       </c>
       <c r="AB3" t="n">
-        <v>595.2259565338649</v>
+        <v>704.3667324379112</v>
       </c>
       <c r="AC3" t="n">
-        <v>538.4184266471489</v>
+        <v>637.1429600789542</v>
       </c>
       <c r="AD3" t="n">
-        <v>435029.063299301</v>
+        <v>514796.0979658999</v>
       </c>
       <c r="AE3" t="n">
-        <v>595225.9565338648</v>
+        <v>704366.7324379112</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.196075957429636e-06</v>
+        <v>2.344292346871079e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.54166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>538418.4266471489</v>
+        <v>637142.9600789541</v>
       </c>
     </row>
     <row r="4">
@@ -10664,28 +10664,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>393.72415129889</v>
+        <v>473.4058451109173</v>
       </c>
       <c r="AB4" t="n">
-        <v>538.7107536907927</v>
+        <v>647.7347624726415</v>
       </c>
       <c r="AC4" t="n">
-        <v>487.2969554438342</v>
+        <v>585.9158658437005</v>
       </c>
       <c r="AD4" t="n">
-        <v>393724.15129889</v>
+        <v>473405.8451109172</v>
       </c>
       <c r="AE4" t="n">
-        <v>538710.7536907927</v>
+        <v>647734.7624726414</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.267352401842472e-06</v>
+        <v>2.483993192884466e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.77994791666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>487296.9554438342</v>
+        <v>585915.8658437006</v>
       </c>
     </row>
     <row r="5">
@@ -10770,28 +10770,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>378.0892662885812</v>
+        <v>446.3757589425026</v>
       </c>
       <c r="AB5" t="n">
-        <v>517.3184142572426</v>
+        <v>610.7510060937758</v>
       </c>
       <c r="AC5" t="n">
-        <v>467.9462708614851</v>
+        <v>552.4617872666059</v>
       </c>
       <c r="AD5" t="n">
-        <v>378089.2662885812</v>
+        <v>446375.7589425026</v>
       </c>
       <c r="AE5" t="n">
-        <v>517318.4142572426</v>
+        <v>610751.0060937759</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.300266445806933e-06</v>
+        <v>2.54850426418489e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.45442708333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>467946.270861485</v>
+        <v>552461.7872666059</v>
       </c>
     </row>
     <row r="6">
@@ -10876,28 +10876,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>364.2353370950945</v>
+        <v>432.5218297490159</v>
       </c>
       <c r="AB6" t="n">
-        <v>498.3628571424939</v>
+        <v>591.7954489790271</v>
       </c>
       <c r="AC6" t="n">
-        <v>450.7998055134765</v>
+        <v>535.3153219185973</v>
       </c>
       <c r="AD6" t="n">
-        <v>364235.3370950945</v>
+        <v>432521.8297490159</v>
       </c>
       <c r="AE6" t="n">
-        <v>498362.8571424938</v>
+        <v>591795.4489790271</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.3234530587887e-06</v>
+        <v>2.593949705191688e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.23958333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>450799.8055134765</v>
+        <v>535315.3219185973</v>
       </c>
     </row>
     <row r="7">
@@ -10982,28 +10982,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>354.5729876489648</v>
+        <v>422.8594803028862</v>
       </c>
       <c r="AB7" t="n">
-        <v>485.1424043575265</v>
+        <v>578.5749961940598</v>
       </c>
       <c r="AC7" t="n">
-        <v>438.8410941872845</v>
+        <v>523.3566105924052</v>
       </c>
       <c r="AD7" t="n">
-        <v>354572.9876489649</v>
+        <v>422859.4803028862</v>
       </c>
       <c r="AE7" t="n">
-        <v>485142.4043575265</v>
+        <v>578574.9961940598</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.334449285116963e-06</v>
+        <v>2.615502156827959e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.13541666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>438841.0941872845</v>
+        <v>523356.6105924053</v>
       </c>
     </row>
     <row r="8">
@@ -11088,28 +11088,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>349.3769068404577</v>
+        <v>417.6633994943791</v>
       </c>
       <c r="AB8" t="n">
-        <v>478.0328973604203</v>
+        <v>571.4654891969536</v>
       </c>
       <c r="AC8" t="n">
-        <v>432.4101085597263</v>
+        <v>516.9256249648471</v>
       </c>
       <c r="AD8" t="n">
-        <v>349376.9068404577</v>
+        <v>417663.3994943791</v>
       </c>
       <c r="AE8" t="n">
-        <v>478032.8973604203</v>
+        <v>571465.4891969536</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.342982555774416e-06</v>
+        <v>2.632227249387328e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>12.05729166666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>432410.1085597263</v>
+        <v>516925.6249648471</v>
       </c>
     </row>
   </sheetData>
@@ -11385,28 +11385,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>618.8638968124411</v>
+        <v>723.5914513519106</v>
       </c>
       <c r="AB2" t="n">
-        <v>846.756885967007</v>
+        <v>990.0497463415344</v>
       </c>
       <c r="AC2" t="n">
-        <v>765.9435972010685</v>
+        <v>895.560788094244</v>
       </c>
       <c r="AD2" t="n">
-        <v>618863.8968124411</v>
+        <v>723591.4513519106</v>
       </c>
       <c r="AE2" t="n">
-        <v>846756.8859670069</v>
+        <v>990049.7463415344</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.425397087198662e-07</v>
+        <v>1.812224002144716e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.8359375</v>
       </c>
       <c r="AH2" t="n">
-        <v>765943.5972010685</v>
+        <v>895560.788094244</v>
       </c>
     </row>
     <row r="3">
@@ -11491,28 +11491,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>472.9676473289693</v>
+        <v>565.9639837478627</v>
       </c>
       <c r="AB3" t="n">
-        <v>647.1352009354583</v>
+        <v>774.3768911325963</v>
       </c>
       <c r="AC3" t="n">
-        <v>585.3735256181363</v>
+        <v>700.4714474876935</v>
       </c>
       <c r="AD3" t="n">
-        <v>472967.6473289693</v>
+        <v>565963.9837478627</v>
       </c>
       <c r="AE3" t="n">
-        <v>647135.2009354583</v>
+        <v>774376.8911325963</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.137911880478465e-06</v>
+        <v>2.187866678773105e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.9453125</v>
       </c>
       <c r="AH3" t="n">
-        <v>585373.5256181364</v>
+        <v>700471.4474876935</v>
       </c>
     </row>
     <row r="4">
@@ -11597,28 +11597,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>438.3627943400817</v>
+        <v>508.2381474446602</v>
       </c>
       <c r="AB4" t="n">
-        <v>599.7873144176947</v>
+        <v>695.3938552183931</v>
       </c>
       <c r="AC4" t="n">
-        <v>542.544454936452</v>
+        <v>629.0264416677545</v>
       </c>
       <c r="AD4" t="n">
-        <v>438362.7943400817</v>
+        <v>508238.1474446602</v>
       </c>
       <c r="AE4" t="n">
-        <v>599787.3144176947</v>
+        <v>695393.8552183931</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.21447632108904e-06</v>
+        <v>2.33507736464831e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.06640625</v>
       </c>
       <c r="AH4" t="n">
-        <v>542544.454936452</v>
+        <v>629026.4416677546</v>
       </c>
     </row>
     <row r="5">
@@ -11703,28 +11703,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>409.9952791030865</v>
+        <v>491.431079110547</v>
       </c>
       <c r="AB5" t="n">
-        <v>560.9736285839912</v>
+        <v>672.3976828481352</v>
       </c>
       <c r="AC5" t="n">
-        <v>507.435092803367</v>
+        <v>608.2249917131835</v>
       </c>
       <c r="AD5" t="n">
-        <v>409995.2791030866</v>
+        <v>491431.079110547</v>
       </c>
       <c r="AE5" t="n">
-        <v>560973.6285839912</v>
+        <v>672397.6828481352</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.249894382918764e-06</v>
+        <v>2.403175781259795e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.6953125</v>
       </c>
       <c r="AH5" t="n">
-        <v>507435.0928033669</v>
+        <v>608224.9917131835</v>
       </c>
     </row>
     <row r="6">
@@ -11809,28 +11809,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>396.886416126735</v>
+        <v>466.6764283767419</v>
       </c>
       <c r="AB6" t="n">
-        <v>543.0375039375282</v>
+        <v>638.5272776160291</v>
       </c>
       <c r="AC6" t="n">
-        <v>491.2107667196534</v>
+        <v>577.5871304190172</v>
       </c>
       <c r="AD6" t="n">
-        <v>396886.416126735</v>
+        <v>466676.4283767419</v>
       </c>
       <c r="AE6" t="n">
-        <v>543037.5039375282</v>
+        <v>638527.2776160291</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.27475771606833e-06</v>
+        <v>2.450980588516308e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.44791666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>491210.7667196534</v>
+        <v>577587.1304190172</v>
       </c>
     </row>
     <row r="7">
@@ -11915,28 +11915,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>385.3515261641757</v>
+        <v>455.1415384141826</v>
       </c>
       <c r="AB7" t="n">
-        <v>527.2549586073246</v>
+        <v>622.7447322858255</v>
       </c>
       <c r="AC7" t="n">
-        <v>476.934485364823</v>
+        <v>563.3108490641866</v>
       </c>
       <c r="AD7" t="n">
-        <v>385351.5261641757</v>
+        <v>455141.5384141826</v>
       </c>
       <c r="AE7" t="n">
-        <v>527254.9586073246</v>
+        <v>622744.7322858255</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.292357055807533e-06</v>
+        <v>2.484818893260625e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.27864583333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>476934.485364823</v>
+        <v>563310.8490641867</v>
       </c>
     </row>
     <row r="8">
@@ -12021,28 +12021,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>376.3811376936558</v>
+        <v>446.1711499436626</v>
       </c>
       <c r="AB8" t="n">
-        <v>514.9812773563503</v>
+        <v>610.4710510348513</v>
       </c>
       <c r="AC8" t="n">
-        <v>465.8321870262218</v>
+        <v>552.2085507255855</v>
       </c>
       <c r="AD8" t="n">
-        <v>376381.1376936558</v>
+        <v>446171.1499436626</v>
       </c>
       <c r="AE8" t="n">
-        <v>514981.2773563504</v>
+        <v>610471.0510348512</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.301961127631973e-06</v>
+        <v>2.503284671749905e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>12.1875</v>
       </c>
       <c r="AH8" t="n">
-        <v>465832.1870262218</v>
+        <v>552208.5507255855</v>
       </c>
     </row>
     <row r="9">
@@ -12127,28 +12127,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>367.7411224882776</v>
+        <v>437.5311347382845</v>
       </c>
       <c r="AB9" t="n">
-        <v>503.1596273817829</v>
+        <v>598.6494010602836</v>
       </c>
       <c r="AC9" t="n">
-        <v>455.1387787334371</v>
+        <v>541.5151424328008</v>
       </c>
       <c r="AD9" t="n">
-        <v>367741.1224882776</v>
+        <v>437531.1347382845</v>
       </c>
       <c r="AE9" t="n">
-        <v>503159.6273817829</v>
+        <v>598649.4010602836</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.30910324195827e-06</v>
+        <v>2.517016836971629e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>12.12239583333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>455138.7787334371</v>
+        <v>541515.1424328007</v>
       </c>
     </row>
     <row r="10">
@@ -12233,28 +12233,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>367.877920891103</v>
+        <v>437.6679331411099</v>
       </c>
       <c r="AB10" t="n">
-        <v>503.346800991648</v>
+        <v>598.8365746701488</v>
       </c>
       <c r="AC10" t="n">
-        <v>455.3080887566766</v>
+        <v>541.6844524560403</v>
       </c>
       <c r="AD10" t="n">
-        <v>367877.920891103</v>
+        <v>437667.9331411099</v>
       </c>
       <c r="AE10" t="n">
-        <v>503346.8009916481</v>
+        <v>598836.5746701488</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.311662702723666e-06</v>
+        <v>2.521937920071564e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>13</v>
+        <v>12.09635416666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>455308.0887566766</v>
+        <v>541684.4524560403</v>
       </c>
     </row>
   </sheetData>
@@ -12530,28 +12530,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>781.1415238326019</v>
+        <v>901.9847373717259</v>
       </c>
       <c r="AB2" t="n">
-        <v>1068.792294439625</v>
+        <v>1234.135310430177</v>
       </c>
       <c r="AC2" t="n">
-        <v>966.7882579177132</v>
+        <v>1116.351168522507</v>
       </c>
       <c r="AD2" t="n">
-        <v>781141.523832602</v>
+        <v>901984.737371726</v>
       </c>
       <c r="AE2" t="n">
-        <v>1068792.294439625</v>
+        <v>1234135.310430177</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.156957424545995e-07</v>
+        <v>1.519579300587589e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.77604166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>966788.2579177131</v>
+        <v>1116351.168522507</v>
       </c>
     </row>
     <row r="3">
@@ -12636,28 +12636,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>562.6258663473747</v>
+        <v>659.2833690077593</v>
       </c>
       <c r="AB3" t="n">
-        <v>769.8095316379024</v>
+        <v>902.0605910059041</v>
       </c>
       <c r="AC3" t="n">
-        <v>696.3399903728438</v>
+        <v>815.969194250291</v>
       </c>
       <c r="AD3" t="n">
-        <v>562625.8663473746</v>
+        <v>659283.3690077594</v>
       </c>
       <c r="AE3" t="n">
-        <v>769809.5316379024</v>
+        <v>902060.5910059041</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.034412971733147e-06</v>
+        <v>1.927032909813763e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.81119791666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>696339.9903728438</v>
+        <v>815969.194250291</v>
       </c>
     </row>
     <row r="4">
@@ -12742,28 +12742,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>504.2040622604796</v>
+        <v>588.8540503360664</v>
       </c>
       <c r="AB4" t="n">
-        <v>689.8742418981194</v>
+        <v>805.6960900770438</v>
       </c>
       <c r="AC4" t="n">
-        <v>624.0336124959418</v>
+        <v>728.8015860416544</v>
       </c>
       <c r="AD4" t="n">
-        <v>504204.0622604797</v>
+        <v>588854.0503360664</v>
       </c>
       <c r="AE4" t="n">
-        <v>689874.2418981194</v>
+        <v>805696.0900770437</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.120031732204816e-06</v>
+        <v>2.086534166695653e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.67838541666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>624033.6124959418</v>
+        <v>728801.5860416545</v>
       </c>
     </row>
     <row r="5">
@@ -12848,28 +12848,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>481.6758300477836</v>
+        <v>554.2330521925519</v>
       </c>
       <c r="AB5" t="n">
-        <v>659.0501207092477</v>
+        <v>758.3261130464457</v>
       </c>
       <c r="AC5" t="n">
-        <v>596.1513021714103</v>
+        <v>685.9525331346763</v>
       </c>
       <c r="AD5" t="n">
-        <v>481675.8300477836</v>
+        <v>554233.0521925519</v>
       </c>
       <c r="AE5" t="n">
-        <v>659050.1207092478</v>
+        <v>758326.1130464457</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.164782180794295e-06</v>
+        <v>2.169900858256344e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.15104166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>596151.3021714103</v>
+        <v>685952.5331346763</v>
       </c>
     </row>
     <row r="6">
@@ -12954,28 +12954,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>456.1627025529966</v>
+        <v>540.7273497740116</v>
       </c>
       <c r="AB6" t="n">
-        <v>624.141934111133</v>
+        <v>739.8470151678596</v>
       </c>
       <c r="AC6" t="n">
-        <v>564.5747039082721</v>
+        <v>669.2370544220458</v>
       </c>
       <c r="AD6" t="n">
-        <v>456162.7025529966</v>
+        <v>540727.3497740116</v>
       </c>
       <c r="AE6" t="n">
-        <v>624141.934111133</v>
+        <v>739847.0151678596</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.189910192936021e-06</v>
+        <v>2.216712439006512e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.87109375</v>
       </c>
       <c r="AH6" t="n">
-        <v>564574.7039082721</v>
+        <v>669237.0544220458</v>
       </c>
     </row>
     <row r="7">
@@ -13060,28 +13060,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>445.4130753063911</v>
+        <v>529.9777225274063</v>
       </c>
       <c r="AB7" t="n">
-        <v>609.4338198722436</v>
+        <v>725.1389009289702</v>
       </c>
       <c r="AC7" t="n">
-        <v>551.270311449374</v>
+        <v>655.932661963148</v>
       </c>
       <c r="AD7" t="n">
-        <v>445413.0753063911</v>
+        <v>529977.7225274063</v>
       </c>
       <c r="AE7" t="n">
-        <v>609433.8198722436</v>
+        <v>725138.9009289702</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.207744493688295e-06</v>
+        <v>2.249936388640057e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.68229166666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>551270.3114493741</v>
+        <v>655932.661963148</v>
       </c>
     </row>
     <row r="8">
@@ -13166,28 +13166,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>435.8749819586135</v>
+        <v>508.5174554494023</v>
       </c>
       <c r="AB8" t="n">
-        <v>596.3833797628334</v>
+        <v>695.7760167526808</v>
       </c>
       <c r="AC8" t="n">
-        <v>539.4653870275986</v>
+        <v>629.3721302415768</v>
       </c>
       <c r="AD8" t="n">
-        <v>435874.9819586135</v>
+        <v>508517.4554494023</v>
       </c>
       <c r="AE8" t="n">
-        <v>596383.3797628335</v>
+        <v>695776.0167526808</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.222143691657149e-06</v>
+        <v>2.276761002328355e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>12.53255208333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>539465.3870275986</v>
+        <v>629372.1302415768</v>
       </c>
     </row>
     <row r="9">
@@ -13272,28 +13272,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>429.8105457484496</v>
+        <v>502.2824270386463</v>
       </c>
       <c r="AB9" t="n">
-        <v>588.0857505960441</v>
+        <v>687.2449758110445</v>
       </c>
       <c r="AC9" t="n">
-        <v>531.9596719426918</v>
+        <v>621.6552798740191</v>
       </c>
       <c r="AD9" t="n">
-        <v>429810.5457484496</v>
+        <v>502282.4270386463</v>
       </c>
       <c r="AE9" t="n">
-        <v>588085.7505960441</v>
+        <v>687244.9758110445</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.230166774185547e-06</v>
+        <v>2.291707396556639e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>12.45442708333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>531959.6719426918</v>
+        <v>621655.2798740191</v>
       </c>
     </row>
     <row r="10">
@@ -13378,28 +13378,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>419.9343301112725</v>
+        <v>492.4062114014692</v>
       </c>
       <c r="AB10" t="n">
-        <v>574.5726766533752</v>
+        <v>673.7319018683755</v>
       </c>
       <c r="AC10" t="n">
-        <v>519.7362668113929</v>
+        <v>609.4318747427201</v>
       </c>
       <c r="AD10" t="n">
-        <v>419934.3301112725</v>
+        <v>492406.2114014692</v>
       </c>
       <c r="AE10" t="n">
-        <v>574572.6766533752</v>
+        <v>673731.9018683755</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.240848532155907e-06</v>
+        <v>2.311606701482271e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>13</v>
+        <v>12.34375</v>
       </c>
       <c r="AH10" t="n">
-        <v>519736.2668113929</v>
+        <v>609431.87474272</v>
       </c>
     </row>
     <row r="11">
@@ -13484,28 +13484,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>413.2752444791582</v>
+        <v>485.747125769355</v>
       </c>
       <c r="AB11" t="n">
-        <v>565.4614219133924</v>
+        <v>664.6206471283924</v>
       </c>
       <c r="AC11" t="n">
-        <v>511.4945774360676</v>
+        <v>601.1901853673947</v>
       </c>
       <c r="AD11" t="n">
-        <v>413275.2444791582</v>
+        <v>485747.125769355</v>
       </c>
       <c r="AE11" t="n">
-        <v>565461.4219133924</v>
+        <v>664620.6471283925</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.247906962532796e-06</v>
+        <v>2.324756021917712e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>13</v>
+        <v>12.27213541666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>511494.5774360676</v>
+        <v>601190.1853673947</v>
       </c>
     </row>
     <row r="12">
@@ -13590,28 +13590,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>404.862085022907</v>
+        <v>477.3339663131036</v>
       </c>
       <c r="AB12" t="n">
-        <v>553.9501659829493</v>
+        <v>653.1093911979497</v>
       </c>
       <c r="AC12" t="n">
-        <v>501.0819396154769</v>
+        <v>590.777547546804</v>
       </c>
       <c r="AD12" t="n">
-        <v>404862.085022907</v>
+        <v>477333.9663131036</v>
       </c>
       <c r="AE12" t="n">
-        <v>553950.1659829493</v>
+        <v>653109.3911979496</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.256024157466219e-06</v>
+        <v>2.339877740418468e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>13</v>
+        <v>12.19401041666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>501081.9396154769</v>
+        <v>590777.5475468041</v>
       </c>
     </row>
     <row r="13">
@@ -13696,28 +13696,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>399.6636951061955</v>
+        <v>472.1355763963922</v>
       </c>
       <c r="AB13" t="n">
-        <v>546.8374995621274</v>
+        <v>645.9967247771276</v>
       </c>
       <c r="AC13" t="n">
-        <v>494.6480960951682</v>
+        <v>584.3437040264953</v>
       </c>
       <c r="AD13" t="n">
-        <v>399663.6951061955</v>
+        <v>472135.5763963922</v>
       </c>
       <c r="AE13" t="n">
-        <v>546837.4995621274</v>
+        <v>645996.7247771276</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.259741597464714e-06</v>
+        <v>2.346803049181133e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>13</v>
+        <v>12.16145833333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>494648.0960951682</v>
+        <v>584343.7040264953</v>
       </c>
     </row>
     <row r="14">
@@ -13802,28 +13802,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>401.2138473049246</v>
+        <v>473.6857285951213</v>
       </c>
       <c r="AB14" t="n">
-        <v>548.9584861883169</v>
+        <v>648.1177114033171</v>
       </c>
       <c r="AC14" t="n">
-        <v>496.5666587345776</v>
+        <v>586.2622666659048</v>
       </c>
       <c r="AD14" t="n">
-        <v>401213.8473049246</v>
+        <v>473685.7285951213</v>
       </c>
       <c r="AE14" t="n">
-        <v>548958.486188317</v>
+        <v>648117.7114033172</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.259059282528281e-06</v>
+        <v>2.345531948205708e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>13</v>
+        <v>12.16796875</v>
       </c>
       <c r="AH14" t="n">
-        <v>496566.6587345776</v>
+        <v>586262.2666659048</v>
       </c>
     </row>
   </sheetData>
@@ -14099,28 +14099,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>488.6168773349922</v>
+        <v>566.4603512673066</v>
       </c>
       <c r="AB2" t="n">
-        <v>668.547167825001</v>
+        <v>775.0560430708888</v>
       </c>
       <c r="AC2" t="n">
-        <v>604.7419644396253</v>
+        <v>701.085782118191</v>
       </c>
       <c r="AD2" t="n">
-        <v>488616.8773349922</v>
+        <v>566460.3512673066</v>
       </c>
       <c r="AE2" t="n">
-        <v>668547.1678250009</v>
+        <v>775056.0430708888</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.093368259668571e-06</v>
+        <v>2.191653784507635e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.15625</v>
       </c>
       <c r="AH2" t="n">
-        <v>604741.9644396254</v>
+        <v>701085.782118191</v>
       </c>
     </row>
     <row r="3">
@@ -14205,28 +14205,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>396.332538207481</v>
+        <v>463.0555286506863</v>
       </c>
       <c r="AB3" t="n">
-        <v>542.2796637330358</v>
+        <v>633.5730028680179</v>
       </c>
       <c r="AC3" t="n">
-        <v>490.5252537206422</v>
+        <v>573.105684699588</v>
       </c>
       <c r="AD3" t="n">
-        <v>396332.538207481</v>
+        <v>463055.5286506863</v>
       </c>
       <c r="AE3" t="n">
-        <v>542279.6637330358</v>
+        <v>633573.0028680179</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.261516105632267e-06</v>
+        <v>2.528705696984819e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.13802083333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>490525.2537206422</v>
+        <v>573105.684699588</v>
       </c>
     </row>
     <row r="4">
@@ -14311,28 +14311,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>356.0842441381364</v>
+        <v>422.7218937267701</v>
       </c>
       <c r="AB4" t="n">
-        <v>487.2101721579418</v>
+        <v>578.3867441707263</v>
       </c>
       <c r="AC4" t="n">
-        <v>440.7115171309584</v>
+        <v>523.1863250779653</v>
       </c>
       <c r="AD4" t="n">
-        <v>356084.2441381364</v>
+        <v>422721.8937267701</v>
       </c>
       <c r="AE4" t="n">
-        <v>487210.1721579419</v>
+        <v>578386.7441707263</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.335561228839714e-06</v>
+        <v>2.677128950602157e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.40885416666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>440711.5171309584</v>
+        <v>523186.3250779653</v>
       </c>
     </row>
     <row r="5">
@@ -14417,28 +14417,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>344.16935690627</v>
+        <v>410.8070064949038</v>
       </c>
       <c r="AB5" t="n">
-        <v>470.907697799576</v>
+        <v>562.0842698123606</v>
       </c>
       <c r="AC5" t="n">
-        <v>425.9649280446886</v>
+        <v>508.4397359916956</v>
       </c>
       <c r="AD5" t="n">
-        <v>344169.35690627</v>
+        <v>410807.0064949038</v>
       </c>
       <c r="AE5" t="n">
-        <v>470907.697799576</v>
+        <v>562084.2698123606</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.356611526843343e-06</v>
+        <v>2.719324217271643e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.21354166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>425964.9280446887</v>
+        <v>508439.7359916955</v>
       </c>
     </row>
     <row r="6">
@@ -14523,28 +14523,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>330.9947954155676</v>
+        <v>397.6324450042014</v>
       </c>
       <c r="AB6" t="n">
-        <v>452.8816815473645</v>
+        <v>544.058253560149</v>
       </c>
       <c r="AC6" t="n">
-        <v>409.6592894839154</v>
+        <v>492.1340974309223</v>
       </c>
       <c r="AD6" t="n">
-        <v>330994.7954155676</v>
+        <v>397632.4450042014</v>
       </c>
       <c r="AE6" t="n">
-        <v>452881.6815473645</v>
+        <v>544058.253560149</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.374938267547834e-06</v>
+        <v>2.756060120538912e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.05078125</v>
       </c>
       <c r="AH6" t="n">
-        <v>409659.2894839154</v>
+        <v>492134.0974309223</v>
       </c>
     </row>
     <row r="7">
@@ -14629,28 +14629,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>331.8740226449489</v>
+        <v>398.5116722335827</v>
       </c>
       <c r="AB7" t="n">
-        <v>454.0846790313718</v>
+        <v>545.2612510441563</v>
       </c>
       <c r="AC7" t="n">
-        <v>410.7474745764666</v>
+        <v>493.2222825234735</v>
       </c>
       <c r="AD7" t="n">
-        <v>331874.0226449489</v>
+        <v>398511.6722335826</v>
       </c>
       <c r="AE7" t="n">
-        <v>454084.6790313718</v>
+        <v>545261.2510441564</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.37320740870352e-06</v>
+        <v>2.752590618563669e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.0703125</v>
       </c>
       <c r="AH7" t="n">
-        <v>410747.4745764666</v>
+        <v>493222.2825234735</v>
       </c>
     </row>
   </sheetData>
@@ -14926,28 +14926,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>383.9364019984779</v>
+        <v>468.9277123443111</v>
       </c>
       <c r="AB2" t="n">
-        <v>525.318723292945</v>
+        <v>641.6075836600961</v>
       </c>
       <c r="AC2" t="n">
-        <v>475.1830416313243</v>
+        <v>580.3734563774752</v>
       </c>
       <c r="AD2" t="n">
-        <v>383936.4019984779</v>
+        <v>468927.7123443111</v>
       </c>
       <c r="AE2" t="n">
-        <v>525318.7232929451</v>
+        <v>641607.5836600962</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.233026996671461e-06</v>
+        <v>2.579569587976595e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.99739583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>475183.0416313243</v>
+        <v>580373.4563774753</v>
       </c>
     </row>
     <row r="3">
@@ -15032,28 +15032,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>325.1193491422675</v>
+        <v>399.5507513358003</v>
       </c>
       <c r="AB3" t="n">
-        <v>444.8426367498396</v>
+        <v>546.6829649127452</v>
       </c>
       <c r="AC3" t="n">
-        <v>402.3874798389961</v>
+        <v>494.5083100158322</v>
       </c>
       <c r="AD3" t="n">
-        <v>325119.3491422675</v>
+        <v>399550.7513358003</v>
       </c>
       <c r="AE3" t="n">
-        <v>444842.6367498396</v>
+        <v>546682.9649127452</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.376231426591953e-06</v>
+        <v>2.879162211077007e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.54557291666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>402387.4798389961</v>
+        <v>494508.3100158322</v>
       </c>
     </row>
     <row r="4">
@@ -15138,28 +15138,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>303.5482231467264</v>
+        <v>367.3344658419381</v>
       </c>
       <c r="AB4" t="n">
-        <v>415.3280705118254</v>
+        <v>502.6032218178361</v>
       </c>
       <c r="AC4" t="n">
-        <v>375.6897423787841</v>
+        <v>454.6354757355932</v>
       </c>
       <c r="AD4" t="n">
-        <v>303548.2231467264</v>
+        <v>367334.4658419381</v>
       </c>
       <c r="AE4" t="n">
-        <v>415328.0705118254</v>
+        <v>502603.221817836</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.42713912987789e-06</v>
+        <v>2.985664310012907e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.09635416666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>375689.7423787841</v>
+        <v>454635.4757355932</v>
       </c>
     </row>
     <row r="5">
@@ -15244,28 +15244,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>301.0718543490352</v>
+        <v>364.858097044247</v>
       </c>
       <c r="AB5" t="n">
-        <v>411.9397934731435</v>
+        <v>499.2149447791541</v>
       </c>
       <c r="AC5" t="n">
-        <v>372.6248377451972</v>
+        <v>451.5705711020063</v>
       </c>
       <c r="AD5" t="n">
-        <v>301071.8543490352</v>
+        <v>364858.097044247</v>
       </c>
       <c r="AE5" t="n">
-        <v>411939.7934731435</v>
+        <v>499214.944779154</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.431858698203357e-06</v>
+        <v>2.995537942101755e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.05729166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>372624.8377451972</v>
+        <v>451570.5711020064</v>
       </c>
     </row>
   </sheetData>
@@ -27866,28 +27866,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>329.0391013505015</v>
+        <v>400.7262055701673</v>
       </c>
       <c r="AB2" t="n">
-        <v>450.2058146484081</v>
+        <v>548.2912732535871</v>
       </c>
       <c r="AC2" t="n">
-        <v>407.2388035661928</v>
+        <v>495.963123665899</v>
       </c>
       <c r="AD2" t="n">
-        <v>329039.1013505015</v>
+        <v>400726.2055701673</v>
       </c>
       <c r="AE2" t="n">
-        <v>450205.8146484082</v>
+        <v>548291.2732535871</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.344792674791387e-06</v>
+        <v>2.923385315356447e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.28125</v>
       </c>
       <c r="AH2" t="n">
-        <v>407238.8035661927</v>
+        <v>495963.123665899</v>
       </c>
     </row>
     <row r="3">
@@ -27972,28 +27972,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>277.3689151382494</v>
+        <v>338.8759750095928</v>
       </c>
       <c r="AB3" t="n">
-        <v>379.5083863450702</v>
+        <v>463.6650591610144</v>
       </c>
       <c r="AC3" t="n">
-        <v>343.2886385956614</v>
+        <v>419.4135166726841</v>
       </c>
       <c r="AD3" t="n">
-        <v>277368.9151382494</v>
+        <v>338875.9750095928</v>
       </c>
       <c r="AE3" t="n">
-        <v>379508.3863450701</v>
+        <v>463665.0591610144</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.481521034649333e-06</v>
+        <v>3.220613049336703e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.05078125</v>
       </c>
       <c r="AH3" t="n">
-        <v>343288.6385956614</v>
+        <v>419413.5166726841</v>
       </c>
     </row>
     <row r="4">
@@ -28078,28 +28078,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>279.0784434472181</v>
+        <v>340.5855033185615</v>
       </c>
       <c r="AB4" t="n">
-        <v>381.8474383964672</v>
+        <v>466.0041112124115</v>
       </c>
       <c r="AC4" t="n">
-        <v>345.4044548021534</v>
+        <v>421.5293328791761</v>
       </c>
       <c r="AD4" t="n">
-        <v>279078.4434472181</v>
+        <v>340585.5033185615</v>
       </c>
       <c r="AE4" t="n">
-        <v>381847.4383964672</v>
+        <v>466004.1112124115</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.474142914528613e-06</v>
+        <v>3.204574080341579e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.11588541666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>345404.4548021534</v>
+        <v>421529.3328791761</v>
       </c>
     </row>
   </sheetData>
@@ -28375,28 +28375,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>235.0909811274445</v>
+        <v>301.5922816601599</v>
       </c>
       <c r="AB2" t="n">
-        <v>321.6618518605243</v>
+        <v>412.6518650798567</v>
       </c>
       <c r="AC2" t="n">
-        <v>290.9628961742959</v>
+        <v>373.2689502371646</v>
       </c>
       <c r="AD2" t="n">
-        <v>235090.9811274445</v>
+        <v>301592.2816601599</v>
       </c>
       <c r="AE2" t="n">
-        <v>321661.8518605243</v>
+        <v>412651.8650798568</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.521767666106533e-06</v>
+        <v>3.619565426051956e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.59114583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>290962.8961742959</v>
+        <v>373268.9502371646</v>
       </c>
     </row>
   </sheetData>
@@ -28672,28 +28672,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>588.4102876713305</v>
+        <v>680.5110867345385</v>
       </c>
       <c r="AB2" t="n">
-        <v>805.0889144217249</v>
+        <v>931.1052909004944</v>
       </c>
       <c r="AC2" t="n">
-        <v>728.252358378703</v>
+        <v>842.2419087514339</v>
       </c>
       <c r="AD2" t="n">
-        <v>588410.2876713305</v>
+        <v>680511.0867345384</v>
       </c>
       <c r="AE2" t="n">
-        <v>805088.9144217249</v>
+        <v>931105.2909004944</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.765435046016178e-07</v>
+        <v>1.895059031487424e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.41276041666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>728252.358378703</v>
+        <v>842241.9087514339</v>
       </c>
     </row>
     <row r="3">
@@ -28778,28 +28778,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>453.6383967491208</v>
+        <v>534.3011908571957</v>
       </c>
       <c r="AB3" t="n">
-        <v>620.6880675457579</v>
+        <v>731.0544610357495</v>
       </c>
       <c r="AC3" t="n">
-        <v>561.4504695203641</v>
+        <v>661.2836493158769</v>
       </c>
       <c r="AD3" t="n">
-        <v>453638.3967491208</v>
+        <v>534301.1908571958</v>
       </c>
       <c r="AE3" t="n">
-        <v>620688.0675457579</v>
+        <v>731054.4610357494</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.166923450174257e-06</v>
+        <v>2.264506202628761e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.73697916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>561450.4695203641</v>
+        <v>661283.6493158769</v>
       </c>
     </row>
     <row r="4">
@@ -28884,28 +28884,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>410.2105033304757</v>
+        <v>490.7879565839791</v>
       </c>
       <c r="AB4" t="n">
-        <v>561.2681078669277</v>
+        <v>671.5177342347215</v>
       </c>
       <c r="AC4" t="n">
-        <v>507.7014673968443</v>
+        <v>607.4290241604183</v>
       </c>
       <c r="AD4" t="n">
-        <v>410210.5033304757</v>
+        <v>490787.9565839791</v>
       </c>
       <c r="AE4" t="n">
-        <v>561268.1078669277</v>
+        <v>671517.7342347215</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.240017729031773e-06</v>
+        <v>2.406351366358055e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.92317708333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>507701.4673968443</v>
+        <v>607429.0241604183</v>
       </c>
     </row>
     <row r="5">
@@ -28990,28 +28990,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>394.3491739461017</v>
+        <v>474.9266271996051</v>
       </c>
       <c r="AB5" t="n">
-        <v>539.5659372507608</v>
+        <v>649.8155636185547</v>
       </c>
       <c r="AC5" t="n">
-        <v>488.0705214850965</v>
+        <v>587.7980782486705</v>
       </c>
       <c r="AD5" t="n">
-        <v>394349.1739461017</v>
+        <v>474926.6271996051</v>
       </c>
       <c r="AE5" t="n">
-        <v>539565.9372507608</v>
+        <v>649815.5636185547</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.273228972608326e-06</v>
+        <v>2.470800381471163e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.59114583333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>488070.5214850965</v>
+        <v>587798.0782486706</v>
       </c>
     </row>
     <row r="6">
@@ -29096,28 +29096,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>381.2922008729236</v>
+        <v>450.3464873338244</v>
       </c>
       <c r="AB6" t="n">
-        <v>521.7008106590408</v>
+        <v>616.1839318549556</v>
       </c>
       <c r="AC6" t="n">
-        <v>471.9104175014277</v>
+        <v>557.3762022182979</v>
       </c>
       <c r="AD6" t="n">
-        <v>381292.2008729235</v>
+        <v>450346.4873338244</v>
       </c>
       <c r="AE6" t="n">
-        <v>521700.8106590408</v>
+        <v>616183.9318549556</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.297404985352712e-06</v>
+        <v>2.517715824644677e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.35677083333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>471910.4175014277</v>
+        <v>557376.2022182979</v>
       </c>
     </row>
     <row r="7">
@@ -29202,28 +29202,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>369.7184801407967</v>
+        <v>438.7727666016975</v>
       </c>
       <c r="AB7" t="n">
-        <v>505.8651353568223</v>
+        <v>600.3482565527371</v>
       </c>
       <c r="AC7" t="n">
-        <v>457.5860768245431</v>
+        <v>543.0518615414132</v>
       </c>
       <c r="AD7" t="n">
-        <v>369718.4801407966</v>
+        <v>438772.7666016975</v>
       </c>
       <c r="AE7" t="n">
-        <v>505865.1353568223</v>
+        <v>600348.2565527371</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.315007683023013e-06</v>
+        <v>2.551875235916636e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.1875</v>
       </c>
       <c r="AH7" t="n">
-        <v>457586.0768245431</v>
+        <v>543051.8615414132</v>
       </c>
     </row>
     <row r="8">
@@ -29308,28 +29308,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>359.833910153497</v>
+        <v>428.8881966143979</v>
       </c>
       <c r="AB8" t="n">
-        <v>492.3406306237478</v>
+        <v>586.8237518196626</v>
       </c>
       <c r="AC8" t="n">
-        <v>445.3523318414316</v>
+        <v>530.8181165583018</v>
       </c>
       <c r="AD8" t="n">
-        <v>359833.910153497</v>
+        <v>428888.1966143979</v>
       </c>
       <c r="AE8" t="n">
-        <v>492340.6306237478</v>
+        <v>586823.7518196625</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.323845960594534e-06</v>
+        <v>2.569026604653186e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>12.109375</v>
       </c>
       <c r="AH8" t="n">
-        <v>445352.3318414316</v>
+        <v>530818.1165583017</v>
       </c>
     </row>
     <row r="9">
@@ -29414,28 +29414,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>358.1019944530012</v>
+        <v>427.1562809139021</v>
       </c>
       <c r="AB9" t="n">
-        <v>489.9709471556012</v>
+        <v>584.4540683515161</v>
       </c>
       <c r="AC9" t="n">
-        <v>443.2088076376133</v>
+        <v>528.6745923544835</v>
       </c>
       <c r="AD9" t="n">
-        <v>358101.9944530012</v>
+        <v>427156.2809139021</v>
       </c>
       <c r="AE9" t="n">
-        <v>489970.9471556012</v>
+        <v>584454.068351516</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.325938588988906e-06</v>
+        <v>2.573087513685516e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>12.08984375</v>
       </c>
       <c r="AH9" t="n">
-        <v>443208.8076376133</v>
+        <v>528674.5923544834</v>
       </c>
     </row>
   </sheetData>
@@ -29711,28 +29711,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>745.2737876010788</v>
+        <v>853.0700125921783</v>
       </c>
       <c r="AB2" t="n">
-        <v>1019.716475354811</v>
+        <v>1167.208026021444</v>
       </c>
       <c r="AC2" t="n">
-        <v>922.3961661280089</v>
+        <v>1055.81133020471</v>
       </c>
       <c r="AD2" t="n">
-        <v>745273.7876010787</v>
+        <v>853070.0125921783</v>
       </c>
       <c r="AE2" t="n">
-        <v>1019716.475354811</v>
+        <v>1167208.026021444</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.444725153614078e-07</v>
+        <v>1.584561665634523e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.28776041666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>922396.1661280089</v>
+        <v>1055811.33020471</v>
       </c>
     </row>
     <row r="3">
@@ -29817,28 +29817,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>542.5962351035181</v>
+        <v>638.4055398819423</v>
       </c>
       <c r="AB3" t="n">
-        <v>742.4041065250922</v>
+        <v>873.4946241311457</v>
       </c>
       <c r="AC3" t="n">
-        <v>671.5501005690444</v>
+        <v>790.1295231614732</v>
       </c>
       <c r="AD3" t="n">
-        <v>542596.2351035181</v>
+        <v>638405.5398819423</v>
       </c>
       <c r="AE3" t="n">
-        <v>742404.1065250922</v>
+        <v>873494.6241311457</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.059196662359276e-06</v>
+        <v>1.987468386492431e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.58333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>671550.1005690444</v>
+        <v>790129.5231614732</v>
       </c>
     </row>
     <row r="4">
@@ -29923,28 +29923,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>489.8093263192718</v>
+        <v>573.7171412481431</v>
       </c>
       <c r="AB4" t="n">
-        <v>670.1787291324288</v>
+        <v>784.9851032696486</v>
       </c>
       <c r="AC4" t="n">
-        <v>606.217811825783</v>
+        <v>710.0672267471047</v>
       </c>
       <c r="AD4" t="n">
-        <v>489809.3263192718</v>
+        <v>573717.141248143</v>
       </c>
       <c r="AE4" t="n">
-        <v>670178.7291324288</v>
+        <v>784985.1032696485</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.138339271395281e-06</v>
+        <v>2.13597096308971e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.56770833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>606217.811825783</v>
+        <v>710067.2267471047</v>
       </c>
     </row>
     <row r="5">
@@ -30029,28 +30029,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>465.9735254996317</v>
+        <v>537.8945992329296</v>
       </c>
       <c r="AB5" t="n">
-        <v>637.5655348896805</v>
+        <v>735.9711209054173</v>
       </c>
       <c r="AC5" t="n">
-        <v>576.717175068657</v>
+        <v>665.7310700681593</v>
       </c>
       <c r="AD5" t="n">
-        <v>465973.5254996317</v>
+        <v>537894.5992329296</v>
       </c>
       <c r="AE5" t="n">
-        <v>637565.5348896806</v>
+        <v>735971.1209054173</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.186047840571363e-06</v>
+        <v>2.225490951560073e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.02083333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>576717.1750686569</v>
+        <v>665731.0700681593</v>
       </c>
     </row>
     <row r="6">
@@ -30135,28 +30135,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>441.7770654123911</v>
+        <v>525.5995394866908</v>
       </c>
       <c r="AB6" t="n">
-        <v>604.4588707258373</v>
+        <v>719.1484777408594</v>
       </c>
       <c r="AC6" t="n">
-        <v>546.770164467116</v>
+        <v>650.5139563564987</v>
       </c>
       <c r="AD6" t="n">
-        <v>441777.0654123911</v>
+        <v>525599.5394866908</v>
       </c>
       <c r="AE6" t="n">
-        <v>604458.8707258373</v>
+        <v>719148.4777408595</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.209344615773208e-06</v>
+        <v>2.269204839515267e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.7734375</v>
       </c>
       <c r="AH6" t="n">
-        <v>546770.164467116</v>
+        <v>650513.9563564988</v>
       </c>
     </row>
     <row r="7">
@@ -30241,28 +30241,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>430.8714542468816</v>
+        <v>514.6939283211814</v>
       </c>
       <c r="AB7" t="n">
-        <v>589.5373324075783</v>
+        <v>704.2269394226007</v>
       </c>
       <c r="AC7" t="n">
-        <v>533.2727168234412</v>
+        <v>637.016508712824</v>
       </c>
       <c r="AD7" t="n">
-        <v>430871.4542468816</v>
+        <v>514693.9283211813</v>
       </c>
       <c r="AE7" t="n">
-        <v>589537.3324075784</v>
+        <v>704226.9394226007</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.226995125702101e-06</v>
+        <v>2.302324119188042e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.58463541666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>533272.7168234412</v>
+        <v>637016.508712824</v>
       </c>
     </row>
     <row r="8">
@@ -30347,28 +30347,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>421.327887080351</v>
+        <v>493.1636199590772</v>
       </c>
       <c r="AB8" t="n">
-        <v>576.479402777863</v>
+        <v>674.768221671402</v>
       </c>
       <c r="AC8" t="n">
-        <v>521.4610176706664</v>
+        <v>610.3692896382298</v>
       </c>
       <c r="AD8" t="n">
-        <v>421327.887080351</v>
+        <v>493163.6199590772</v>
       </c>
       <c r="AE8" t="n">
-        <v>576479.402777863</v>
+        <v>674768.221671402</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.241608988761508e-06</v>
+        <v>2.329745458271952e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>12.44140625</v>
       </c>
       <c r="AH8" t="n">
-        <v>521461.0176706663</v>
+        <v>610369.2896382298</v>
       </c>
     </row>
     <row r="9">
@@ -30453,28 +30453,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>412.616634226597</v>
+        <v>484.4523671053232</v>
       </c>
       <c r="AB9" t="n">
-        <v>564.5602823100043</v>
+        <v>662.8491012035433</v>
       </c>
       <c r="AC9" t="n">
-        <v>510.6794413316695</v>
+        <v>599.5877132992329</v>
       </c>
       <c r="AD9" t="n">
-        <v>412616.634226597</v>
+        <v>484452.3671053232</v>
       </c>
       <c r="AE9" t="n">
-        <v>564560.2823100042</v>
+        <v>662849.1012035434</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.252094909982705e-06</v>
+        <v>2.349421159367875e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>12.33723958333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>510679.4413316695</v>
+        <v>599587.7132992329</v>
       </c>
     </row>
     <row r="10">
@@ -30559,28 +30559,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>405.3832226704259</v>
+        <v>477.2189555491521</v>
       </c>
       <c r="AB10" t="n">
-        <v>554.6632095032553</v>
+        <v>652.9520283967944</v>
       </c>
       <c r="AC10" t="n">
-        <v>501.7269312629676</v>
+        <v>590.635203230531</v>
       </c>
       <c r="AD10" t="n">
-        <v>405383.2226704259</v>
+        <v>477218.9555491521</v>
       </c>
       <c r="AE10" t="n">
-        <v>554663.2095032553</v>
+        <v>652952.0283967943</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.259639079549087e-06</v>
+        <v>2.363576980518335e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>13</v>
+        <v>12.25911458333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>501726.9312629676</v>
+        <v>590635.2032305311</v>
       </c>
     </row>
     <row r="11">
@@ -30665,28 +30665,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>397.5986864691964</v>
+        <v>469.4344193479225</v>
       </c>
       <c r="AB11" t="n">
-        <v>544.0120636432337</v>
+        <v>642.3008825367727</v>
       </c>
       <c r="AC11" t="n">
-        <v>492.0923158148494</v>
+        <v>581.0005877824129</v>
       </c>
       <c r="AD11" t="n">
-        <v>397598.6864691963</v>
+        <v>469434.4193479226</v>
       </c>
       <c r="AE11" t="n">
-        <v>544012.0636432336</v>
+        <v>642300.8825367728</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.268772743961216e-06</v>
+        <v>2.380715317445779e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>13</v>
+        <v>12.17447916666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>492092.3158148494</v>
+        <v>581000.5877824129</v>
       </c>
     </row>
     <row r="12">
@@ -30771,28 +30771,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>393.1059748648356</v>
+        <v>464.9417077435619</v>
       </c>
       <c r="AB12" t="n">
-        <v>537.8649374217001</v>
+        <v>636.1537563152392</v>
       </c>
       <c r="AC12" t="n">
-        <v>486.5318626923531</v>
+        <v>575.4401346599167</v>
       </c>
       <c r="AD12" t="n">
-        <v>393105.9748648356</v>
+        <v>464941.7077435619</v>
       </c>
       <c r="AE12" t="n">
-        <v>537864.9374217001</v>
+        <v>636153.7563152392</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.27083671488032e-06</v>
+        <v>2.384588136439772e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>13</v>
+        <v>12.15494791666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>486531.8626923531</v>
+        <v>575440.1346599166</v>
       </c>
     </row>
     <row r="13">
@@ -30877,28 +30877,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>393.828630940553</v>
+        <v>465.6643638192792</v>
       </c>
       <c r="AB13" t="n">
-        <v>538.8537073458324</v>
+        <v>637.1425262393716</v>
       </c>
       <c r="AC13" t="n">
-        <v>487.4262658026736</v>
+        <v>576.334537770237</v>
       </c>
       <c r="AD13" t="n">
-        <v>393828.630940553</v>
+        <v>465664.3638192792</v>
       </c>
       <c r="AE13" t="n">
-        <v>538853.7073458324</v>
+        <v>637142.5262393716</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.270884162487656e-06</v>
+        <v>2.384677166761473e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>13</v>
+        <v>12.15494791666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>487426.2658026736</v>
+        <v>576334.5377702371</v>
       </c>
     </row>
   </sheetData>
@@ -31174,28 +31174,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>224.3177310755434</v>
+        <v>288.2684896175877</v>
       </c>
       <c r="AB2" t="n">
-        <v>306.9214158572721</v>
+        <v>394.4216650029898</v>
       </c>
       <c r="AC2" t="n">
-        <v>277.6292666948574</v>
+        <v>356.7786148693873</v>
       </c>
       <c r="AD2" t="n">
-        <v>224317.7310755434</v>
+        <v>288268.4896175877</v>
       </c>
       <c r="AE2" t="n">
-        <v>306921.4158572721</v>
+        <v>394421.6650029898</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.49775553050331e-06</v>
+        <v>3.745772917823018e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.24869791666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>277629.2666948574</v>
+        <v>356778.6148693873</v>
       </c>
     </row>
   </sheetData>
@@ -31471,28 +31471,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>422.3480552778508</v>
+        <v>497.9604327522306</v>
       </c>
       <c r="AB2" t="n">
-        <v>577.8752419123265</v>
+        <v>681.3314325554394</v>
       </c>
       <c r="AC2" t="n">
-        <v>522.7236398772093</v>
+        <v>616.306116887019</v>
       </c>
       <c r="AD2" t="n">
-        <v>422348.0552778508</v>
+        <v>497960.4327522306</v>
       </c>
       <c r="AE2" t="n">
-        <v>577875.2419123265</v>
+        <v>681331.4325554394</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.182054999711544e-06</v>
+        <v>2.434186307493038e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.38802083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>522723.6398772093</v>
+        <v>616306.116887019</v>
       </c>
     </row>
     <row r="3">
@@ -31577,28 +31577,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>345.3763173459539</v>
+        <v>420.9886053117827</v>
       </c>
       <c r="AB3" t="n">
-        <v>472.5591143204879</v>
+        <v>576.0151824940524</v>
       </c>
       <c r="AC3" t="n">
-        <v>427.4587356906223</v>
+        <v>521.0411019192055</v>
       </c>
       <c r="AD3" t="n">
-        <v>345376.3173459538</v>
+        <v>420988.6053117827</v>
       </c>
       <c r="AE3" t="n">
-        <v>472559.1143204879</v>
+        <v>576015.1824940525</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.336706389895064e-06</v>
+        <v>2.752657357073094e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.72786458333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>427458.7356906223</v>
+        <v>521041.1019192055</v>
       </c>
     </row>
     <row r="4">
@@ -31683,28 +31683,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>323.4291493586771</v>
+        <v>388.2275798587141</v>
       </c>
       <c r="AB4" t="n">
-        <v>442.5300308395794</v>
+        <v>531.1901021547263</v>
       </c>
       <c r="AC4" t="n">
-        <v>400.2955857910484</v>
+        <v>480.4940643350692</v>
       </c>
       <c r="AD4" t="n">
-        <v>323429.1493586772</v>
+        <v>388227.5798587141</v>
       </c>
       <c r="AE4" t="n">
-        <v>442530.0308395794</v>
+        <v>531190.1021547263</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.390373217980374e-06</v>
+        <v>2.863172568398898e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.23307291666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>400295.5857910484</v>
+        <v>480494.0643350692</v>
       </c>
     </row>
     <row r="5">
@@ -31789,28 +31789,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>311.3025092080187</v>
+        <v>376.1009397080557</v>
       </c>
       <c r="AB5" t="n">
-        <v>425.9378267958428</v>
+        <v>514.5978981109896</v>
       </c>
       <c r="AC5" t="n">
-        <v>385.2869184139413</v>
+        <v>465.4853969579622</v>
       </c>
       <c r="AD5" t="n">
-        <v>311302.5092080187</v>
+        <v>376100.9397080557</v>
       </c>
       <c r="AE5" t="n">
-        <v>425937.8267958428</v>
+        <v>514597.8981109896</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.410674642236599e-06</v>
+        <v>2.904978955546001e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.05729166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>385286.9184139413</v>
+        <v>465485.3969579622</v>
       </c>
     </row>
     <row r="6">
@@ -31895,28 +31895,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>311.4606691649441</v>
+        <v>376.259099664981</v>
       </c>
       <c r="AB6" t="n">
-        <v>426.1542282264329</v>
+        <v>514.8142995415798</v>
       </c>
       <c r="AC6" t="n">
-        <v>385.4826667957171</v>
+        <v>465.6811453397381</v>
       </c>
       <c r="AD6" t="n">
-        <v>311460.6691649441</v>
+        <v>376259.099664981</v>
       </c>
       <c r="AE6" t="n">
-        <v>426154.2282264329</v>
+        <v>514814.2995415798</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.414306428557854e-06</v>
+        <v>2.912457833040786e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.02473958333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>385482.6667957171</v>
+        <v>465681.1453397381</v>
       </c>
     </row>
   </sheetData>
@@ -32192,28 +32192,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>517.7235532553823</v>
+        <v>607.8140118855707</v>
       </c>
       <c r="AB2" t="n">
-        <v>708.3722059151935</v>
+        <v>831.6379459235452</v>
       </c>
       <c r="AC2" t="n">
-        <v>640.7661567892819</v>
+        <v>752.2675875757891</v>
       </c>
       <c r="AD2" t="n">
-        <v>517723.5532553823</v>
+        <v>607814.0118855707</v>
       </c>
       <c r="AE2" t="n">
-        <v>708372.2059151935</v>
+        <v>831637.9459235452</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.051555405997711e-06</v>
+        <v>2.083324863022006e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.57291666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>640766.1567892819</v>
+        <v>752267.5875757891</v>
       </c>
     </row>
     <row r="3">
@@ -32298,28 +32298,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>415.1077289446689</v>
+        <v>493.7662880454916</v>
       </c>
       <c r="AB3" t="n">
-        <v>567.968708002613</v>
+        <v>675.5928187350737</v>
       </c>
       <c r="AC3" t="n">
-        <v>513.7625716599312</v>
+        <v>611.1151883154738</v>
       </c>
       <c r="AD3" t="n">
-        <v>415107.7289446689</v>
+        <v>493766.2880454916</v>
       </c>
       <c r="AE3" t="n">
-        <v>567968.7080026129</v>
+        <v>675592.8187350737</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.2299590933652e-06</v>
+        <v>2.436775413917946e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.31380208333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>513762.5716599311</v>
+        <v>611115.1883154738</v>
       </c>
     </row>
     <row r="4">
@@ -32404,28 +32404,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>376.8572657654136</v>
+        <v>455.6010762122569</v>
       </c>
       <c r="AB4" t="n">
-        <v>515.6327367894175</v>
+        <v>623.3734921745277</v>
       </c>
       <c r="AC4" t="n">
-        <v>466.4214720853261</v>
+        <v>563.8796009915811</v>
       </c>
       <c r="AD4" t="n">
-        <v>376857.2657654136</v>
+        <v>455601.0762122569</v>
       </c>
       <c r="AE4" t="n">
-        <v>515632.7367894175</v>
+        <v>623373.4921745276</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.295665583974884e-06</v>
+        <v>2.56695206915486e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.64322916666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>466421.4720853261</v>
+        <v>563879.6009915811</v>
       </c>
     </row>
     <row r="5">
@@ -32510,28 +32510,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>361.2935277702375</v>
+        <v>428.7761203968582</v>
       </c>
       <c r="AB5" t="n">
-        <v>494.3377438407568</v>
+        <v>586.6704041943711</v>
       </c>
       <c r="AC5" t="n">
-        <v>447.1588433759752</v>
+        <v>530.6794042151433</v>
       </c>
       <c r="AD5" t="n">
-        <v>361293.5277702375</v>
+        <v>428776.1203968583</v>
       </c>
       <c r="AE5" t="n">
-        <v>494337.7438407568</v>
+        <v>586670.4041943712</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.328267273036964e-06</v>
+        <v>2.631542017541935e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.33072916666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>447158.8433759752</v>
+        <v>530679.4042151433</v>
       </c>
     </row>
     <row r="6">
@@ -32616,28 +32616,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>348.2851920583047</v>
+        <v>415.7677846849255</v>
       </c>
       <c r="AB6" t="n">
-        <v>476.5391650324216</v>
+        <v>568.871825386036</v>
       </c>
       <c r="AC6" t="n">
-        <v>431.0589359486453</v>
+        <v>514.5794967878134</v>
       </c>
       <c r="AD6" t="n">
-        <v>348285.1920583047</v>
+        <v>415767.7846849255</v>
       </c>
       <c r="AE6" t="n">
-        <v>476539.1650324216</v>
+        <v>568871.825386036</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.347838348723922e-06</v>
+        <v>2.670315921743435e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.1484375</v>
       </c>
       <c r="AH6" t="n">
-        <v>431058.9359486453</v>
+        <v>514579.4967878134</v>
       </c>
     </row>
     <row r="7">
@@ -32722,28 +32722,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>339.6608627092676</v>
+        <v>407.1434553358883</v>
       </c>
       <c r="AB7" t="n">
-        <v>464.738977138511</v>
+        <v>557.0716374921254</v>
       </c>
       <c r="AC7" t="n">
-        <v>420.3849414256618</v>
+        <v>503.9055022648299</v>
       </c>
       <c r="AD7" t="n">
-        <v>339660.8627092676</v>
+        <v>407143.4553358883</v>
       </c>
       <c r="AE7" t="n">
-        <v>464738.977138511</v>
+        <v>557071.6374921254</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.360038826497925e-06</v>
+        <v>2.694487314465451e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.04427083333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>420384.9414256618</v>
+        <v>503905.5022648299</v>
       </c>
     </row>
     <row r="8">
@@ -32828,28 +32828,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>340.473247196904</v>
+        <v>407.9558398235247</v>
       </c>
       <c r="AB8" t="n">
-        <v>465.8505174343692</v>
+        <v>558.1831777879837</v>
       </c>
       <c r="AC8" t="n">
-        <v>421.3903978757399</v>
+        <v>504.9109587149081</v>
       </c>
       <c r="AD8" t="n">
-        <v>340473.247196904</v>
+        <v>407955.8398235248</v>
       </c>
       <c r="AE8" t="n">
-        <v>465850.5174343692</v>
+        <v>558183.1777879837</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.361070207093253e-06</v>
+        <v>2.696530669314116e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>12.03125</v>
       </c>
       <c r="AH8" t="n">
-        <v>421390.39787574</v>
+        <v>504910.9587149081</v>
       </c>
     </row>
   </sheetData>
